--- a/pred_ohlcv/54_21/2020-01-25 MBL ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-25 MBL ohlcv.xlsx
@@ -23610,7 +23610,7 @@
         <v>1996385.313257403</v>
       </c>
       <c r="H893">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="894" spans="1:8">
@@ -23636,7 +23636,7 @@
         <v>1955479.313257403</v>
       </c>
       <c r="H894">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="895" spans="1:8">
@@ -23662,7 +23662,7 @@
         <v>1955479.313257403</v>
       </c>
       <c r="H895">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="896" spans="1:8">
@@ -23688,7 +23688,7 @@
         <v>1932784.313257403</v>
       </c>
       <c r="H896">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="897" spans="1:8">
@@ -23714,7 +23714,7 @@
         <v>1904925.313257403</v>
       </c>
       <c r="H897">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="898" spans="1:8">
@@ -23740,7 +23740,7 @@
         <v>1178008.976257403</v>
       </c>
       <c r="H898">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="899" spans="1:8">
@@ -23766,7 +23766,7 @@
         <v>1205842.976257403</v>
       </c>
       <c r="H899">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="900" spans="1:8">
@@ -23792,7 +23792,7 @@
         <v>1131190.062857403</v>
       </c>
       <c r="H900">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="901" spans="1:8">
@@ -23818,7 +23818,7 @@
         <v>1185836.062857403</v>
       </c>
       <c r="H901">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="902" spans="1:8">
@@ -23844,7 +23844,7 @@
         <v>27427.01635740278</v>
       </c>
       <c r="H902">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="903" spans="1:8">
@@ -23948,7 +23948,7 @@
         <v>173294.3456574028</v>
       </c>
       <c r="H906">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="907" spans="1:8">
@@ -23974,7 +23974,7 @@
         <v>130898.6330252941</v>
       </c>
       <c r="H907">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="908" spans="1:8">
@@ -24000,7 +24000,7 @@
         <v>-109746.9674747059</v>
       </c>
       <c r="H908">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="909" spans="1:8">
@@ -24026,7 +24026,7 @@
         <v>-149655.9674747059</v>
       </c>
       <c r="H909">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="910" spans="1:8">
@@ -24052,7 +24052,7 @@
         <v>-117114.9674747059</v>
       </c>
       <c r="H910">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="911" spans="1:8">
@@ -24104,7 +24104,7 @@
         <v>-109067.2548747059</v>
       </c>
       <c r="H912">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="913" spans="1:8">
@@ -24130,7 +24130,7 @@
         <v>-169037.518474706</v>
       </c>
       <c r="H913">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="914" spans="1:8">
@@ -24156,7 +24156,7 @@
         <v>276477.2876252941</v>
       </c>
       <c r="H914">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="915" spans="1:8">
@@ -24182,7 +24182,7 @@
         <v>301531.2876252941</v>
       </c>
       <c r="H915">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="916" spans="1:8">
@@ -24208,7 +24208,7 @@
         <v>265616.2876252941</v>
       </c>
       <c r="H916">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="917" spans="1:8">
@@ -24234,7 +24234,7 @@
         <v>241681.2876252941</v>
       </c>
       <c r="H917">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="918" spans="1:8">
@@ -24260,7 +24260,7 @@
         <v>241681.2876252941</v>
       </c>
       <c r="H918">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="919" spans="1:8">
@@ -24286,7 +24286,7 @@
         <v>207033.2876252941</v>
       </c>
       <c r="H919">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="920" spans="1:8">
@@ -24390,7 +24390,7 @@
         <v>296729.7843252941</v>
       </c>
       <c r="H923">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="924" spans="1:8">
@@ -24416,7 +24416,7 @@
         <v>-64180.48187470593</v>
       </c>
       <c r="H924">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="925" spans="1:8">
@@ -29122,7 +29122,7 @@
         <v>-5660408.901465068</v>
       </c>
       <c r="H1105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1106" spans="1:8">
@@ -29148,7 +29148,7 @@
         <v>-5699128.901465068</v>
       </c>
       <c r="H1106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1107" spans="1:8">
@@ -29174,7 +29174,7 @@
         <v>-5674642.901465068</v>
       </c>
       <c r="H1107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1108" spans="1:8">
@@ -29200,7 +29200,7 @@
         <v>-5706420.901465068</v>
       </c>
       <c r="H1108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1109" spans="1:8">
@@ -29226,7 +29226,7 @@
         <v>-5706420.901465068</v>
       </c>
       <c r="H1109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1110" spans="1:8">
@@ -29252,7 +29252,7 @@
         <v>-5672387.901465068</v>
       </c>
       <c r="H1110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1111" spans="1:8">
@@ -29278,7 +29278,7 @@
         <v>-5639963.901465068</v>
       </c>
       <c r="H1111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1112" spans="1:8">
@@ -30084,7 +30084,7 @@
         <v>-6850228.584165067</v>
       </c>
       <c r="H1142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1143" spans="1:8">
@@ -30110,7 +30110,7 @@
         <v>-6810365.584165067</v>
       </c>
       <c r="H1143">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1144" spans="1:8">
@@ -30136,7 +30136,7 @@
         <v>-6758730.584165067</v>
       </c>
       <c r="H1144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1145" spans="1:8">
@@ -30162,7 +30162,7 @@
         <v>-6804698.584165067</v>
       </c>
       <c r="H1145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1146" spans="1:8">
@@ -30188,7 +30188,7 @@
         <v>-6845690.584165067</v>
       </c>
       <c r="H1146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1147" spans="1:8">
@@ -30214,7 +30214,7 @@
         <v>-6881280.585765067</v>
       </c>
       <c r="H1147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1148" spans="1:8">
@@ -30240,7 +30240,7 @@
         <v>-6720317.958865068</v>
       </c>
       <c r="H1148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1149" spans="1:8">
@@ -30266,7 +30266,7 @@
         <v>-6742878.958865068</v>
       </c>
       <c r="H1149">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1150" spans="1:8">
@@ -30656,7 +30656,7 @@
         <v>-6789041.958865068</v>
       </c>
       <c r="H1164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1165" spans="1:8">
@@ -30682,7 +30682,7 @@
         <v>-6828251.671565068</v>
       </c>
       <c r="H1165">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1166" spans="1:8">
@@ -30734,7 +30734,7 @@
         <v>-6771982.671565068</v>
       </c>
       <c r="H1167">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1168" spans="1:8">
@@ -30760,7 +30760,7 @@
         <v>-6815322.671565068</v>
       </c>
       <c r="H1168">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1169" spans="1:8">
@@ -30786,7 +30786,7 @@
         <v>-6768288.671565068</v>
       </c>
       <c r="H1169">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1170" spans="1:8">
@@ -30838,7 +30838,7 @@
         <v>-6756550.671565068</v>
       </c>
       <c r="H1171">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1172" spans="1:8">
@@ -30864,7 +30864,7 @@
         <v>-6781059.671565068</v>
       </c>
       <c r="H1172">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1173" spans="1:8">
@@ -31280,7 +31280,7 @@
         <v>-6631218.350365068</v>
       </c>
       <c r="H1188">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1189" spans="1:8">
@@ -31514,7 +31514,7 @@
         <v>-6636824.347565068</v>
       </c>
       <c r="H1197">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1198" spans="1:8">
@@ -31540,7 +31540,7 @@
         <v>-6605308.347565068</v>
       </c>
       <c r="H1198">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1199" spans="1:8">
@@ -31566,7 +31566,7 @@
         <v>-6642268.347565068</v>
       </c>
       <c r="H1199">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1200" spans="1:8">
@@ -31592,7 +31592,7 @@
         <v>-6642268.347565068</v>
       </c>
       <c r="H1200">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1201" spans="1:8">
@@ -31618,7 +31618,7 @@
         <v>-6642268.347565068</v>
       </c>
       <c r="H1201">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1202" spans="1:8">
@@ -31956,7 +31956,7 @@
         <v>-6481741.347565068</v>
       </c>
       <c r="H1214">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1215" spans="1:8">
@@ -31982,7 +31982,7 @@
         <v>-6519487.347565068</v>
       </c>
       <c r="H1215">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1216" spans="1:8">
@@ -32008,7 +32008,7 @@
         <v>-6547382.347565068</v>
       </c>
       <c r="H1216">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1217" spans="1:8">
@@ -32034,7 +32034,7 @@
         <v>-6547382.347565068</v>
       </c>
       <c r="H1217">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1218" spans="1:8">
@@ -32242,7 +32242,7 @@
         <v>-6457430.347565068</v>
       </c>
       <c r="H1225">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1226" spans="1:8">
@@ -32268,7 +32268,7 @@
         <v>-6457430.347565068</v>
       </c>
       <c r="H1226">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1227" spans="1:8">
@@ -32398,7 +32398,7 @@
         <v>-6346764.347565068</v>
       </c>
       <c r="H1231">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1232" spans="1:8">
@@ -32424,7 +32424,7 @@
         <v>-6384134.347565068</v>
       </c>
       <c r="H1232">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1233" spans="1:8">
@@ -32450,7 +32450,7 @@
         <v>-6384134.347565068</v>
       </c>
       <c r="H1233">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1234" spans="1:8">
@@ -32476,7 +32476,7 @@
         <v>-6428174.347565068</v>
       </c>
       <c r="H1234">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1235" spans="1:8">
@@ -32502,7 +32502,7 @@
         <v>-6385913.347565068</v>
       </c>
       <c r="H1235">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1236" spans="1:8">
@@ -32528,7 +32528,7 @@
         <v>-6385913.347565068</v>
       </c>
       <c r="H1236">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1237" spans="1:8">
@@ -32554,7 +32554,7 @@
         <v>-6418402.347565068</v>
       </c>
       <c r="H1237">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1238" spans="1:8">
@@ -32580,7 +32580,7 @@
         <v>-6381615.347565068</v>
       </c>
       <c r="H1238">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1239" spans="1:8">
@@ -32606,7 +32606,7 @@
         <v>-6381615.347565068</v>
       </c>
       <c r="H1239">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1240" spans="1:8">
@@ -32632,7 +32632,7 @@
         <v>-6345266.347565068</v>
       </c>
       <c r="H1240">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1241" spans="1:8">
@@ -32658,7 +32658,7 @@
         <v>-6369332.347565068</v>
       </c>
       <c r="H1241">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1242" spans="1:8">
@@ -32684,7 +32684,7 @@
         <v>-6332462.347565068</v>
       </c>
       <c r="H1242">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1243" spans="1:8">
@@ -32710,7 +32710,7 @@
         <v>-6332462.347565068</v>
       </c>
       <c r="H1243">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1244" spans="1:8">
@@ -32736,7 +32736,7 @@
         <v>-6332462.347565068</v>
       </c>
       <c r="H1244">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1245" spans="1:8">
@@ -32762,7 +32762,7 @@
         <v>-6332462.347565068</v>
       </c>
       <c r="H1245">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1246" spans="1:8">
@@ -32788,7 +32788,7 @@
         <v>-6332462.347565068</v>
       </c>
       <c r="H1246">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1247" spans="1:8">
@@ -32814,7 +32814,7 @@
         <v>-6310452.347565068</v>
       </c>
       <c r="H1247">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1248" spans="1:8">
@@ -32840,7 +32840,7 @@
         <v>-6344747.347565068</v>
       </c>
       <c r="H1248">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1249" spans="1:8">
@@ -32866,7 +32866,7 @@
         <v>-6344747.347565068</v>
       </c>
       <c r="H1249">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1250" spans="1:8">
@@ -32892,7 +32892,7 @@
         <v>-6318163.347565068</v>
       </c>
       <c r="H1250">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1251" spans="1:8">
@@ -32918,7 +32918,7 @@
         <v>-6356742.347565068</v>
       </c>
       <c r="H1251">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1252" spans="1:8">
@@ -32944,7 +32944,7 @@
         <v>-6317662.347565068</v>
       </c>
       <c r="H1252">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1253" spans="1:8">
@@ -32970,7 +32970,7 @@
         <v>-6317662.347565068</v>
       </c>
       <c r="H1253">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1254" spans="1:8">
@@ -32996,7 +32996,7 @@
         <v>-6264214.347565068</v>
       </c>
       <c r="H1254">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1255" spans="1:8">
@@ -33022,7 +33022,7 @@
         <v>-6289857.347565068</v>
       </c>
       <c r="H1255">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1256" spans="1:8">
@@ -33048,7 +33048,7 @@
         <v>-6289857.347565068</v>
       </c>
       <c r="H1256">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1257" spans="1:8">
@@ -33074,7 +33074,7 @@
         <v>-6260416.347565068</v>
       </c>
       <c r="H1257">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1258" spans="1:8">
@@ -33100,7 +33100,7 @@
         <v>-6225657.347565068</v>
       </c>
       <c r="H1258">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1259" spans="1:8">
@@ -33126,7 +33126,7 @@
         <v>-6262443.347565068</v>
       </c>
       <c r="H1259">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1260" spans="1:8">
@@ -33152,7 +33152,7 @@
         <v>-6262443.347565068</v>
       </c>
       <c r="H1260">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1261" spans="1:8">
@@ -33178,7 +33178,7 @@
         <v>-6222907.347565068</v>
       </c>
       <c r="H1261">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1262" spans="1:8">
@@ -33204,7 +33204,7 @@
         <v>-6190500.347565068</v>
       </c>
       <c r="H1262">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1263" spans="1:8">
@@ -33230,7 +33230,7 @@
         <v>-6217413.347565068</v>
       </c>
       <c r="H1263">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1264" spans="1:8">
@@ -33256,7 +33256,7 @@
         <v>-6242666.347565068</v>
       </c>
       <c r="H1264">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1265" spans="1:8">
@@ -33282,7 +33282,7 @@
         <v>-6242666.347565068</v>
       </c>
       <c r="H1265">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1266" spans="1:8">
@@ -33308,7 +33308,7 @@
         <v>-6242666.347565068</v>
       </c>
       <c r="H1266">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1267" spans="1:8">
@@ -33334,7 +33334,7 @@
         <v>-6216832.347565068</v>
       </c>
       <c r="H1267">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1268" spans="1:8">
@@ -33360,7 +33360,7 @@
         <v>-6248033.347565068</v>
       </c>
       <c r="H1268">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1269" spans="1:8">
@@ -33386,7 +33386,7 @@
         <v>-6248033.347565068</v>
       </c>
       <c r="H1269">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1270" spans="1:8">
@@ -33412,7 +33412,7 @@
         <v>-6218514.347565068</v>
       </c>
       <c r="H1270">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1271" spans="1:8">
@@ -33438,7 +33438,7 @@
         <v>-6196548.347565068</v>
       </c>
       <c r="H1271">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1272" spans="1:8">
@@ -33464,7 +33464,7 @@
         <v>-6165468.347565068</v>
       </c>
       <c r="H1272">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1273" spans="1:8">
@@ -33490,7 +33490,7 @@
         <v>-6143232.347565068</v>
       </c>
       <c r="H1273">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1274" spans="1:8">
@@ -33516,7 +33516,7 @@
         <v>-6143232.347565068</v>
       </c>
       <c r="H1274">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1275" spans="1:8">
@@ -33542,7 +33542,7 @@
         <v>-6171084.347565068</v>
       </c>
       <c r="H1275">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1276" spans="1:8">
@@ -33568,7 +33568,7 @@
         <v>-6191032.347565068</v>
       </c>
       <c r="H1276">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1277" spans="1:8">
@@ -33594,7 +33594,7 @@
         <v>-6191032.347565068</v>
       </c>
       <c r="H1277">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1278" spans="1:8">
@@ -33620,7 +33620,7 @@
         <v>-6191032.347565068</v>
       </c>
       <c r="H1278">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1279" spans="1:8">
@@ -33646,7 +33646,7 @@
         <v>-6191032.347565068</v>
       </c>
       <c r="H1279">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1280" spans="1:8">
@@ -33672,7 +33672,7 @@
         <v>-6191032.347565068</v>
       </c>
       <c r="H1280">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1281" spans="1:8">
@@ -33698,7 +33698,7 @@
         <v>-6171414.347565068</v>
       </c>
       <c r="H1281">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1282" spans="1:8">
@@ -33724,7 +33724,7 @@
         <v>-6137715.347565068</v>
       </c>
       <c r="H1282">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1283" spans="1:8">
@@ -33750,7 +33750,7 @@
         <v>-6137715.347565068</v>
       </c>
       <c r="H1283">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1284" spans="1:8">
@@ -33776,7 +33776,7 @@
         <v>-6172825.347565068</v>
       </c>
       <c r="H1284">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1285" spans="1:8">
@@ -33802,7 +33802,7 @@
         <v>-6172825.347565068</v>
       </c>
       <c r="H1285">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1286" spans="1:8">
@@ -33828,7 +33828,7 @@
         <v>-6214354.347565068</v>
       </c>
       <c r="H1286">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1287" spans="1:8">
@@ -33854,7 +33854,7 @@
         <v>-6214354.347565068</v>
       </c>
       <c r="H1287">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1288" spans="1:8">
@@ -33880,7 +33880,7 @@
         <v>-6184129.347565068</v>
       </c>
       <c r="H1288">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1289" spans="1:8">
@@ -33906,7 +33906,7 @@
         <v>-6184129.347565068</v>
       </c>
       <c r="H1289">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1290" spans="1:8">
@@ -33932,7 +33932,7 @@
         <v>-6184129.347565068</v>
       </c>
       <c r="H1290">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1291" spans="1:8">
@@ -33958,7 +33958,7 @@
         <v>-6152530.347565068</v>
       </c>
       <c r="H1291">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1292" spans="1:8">
@@ -33984,7 +33984,7 @@
         <v>-6193134.347565068</v>
       </c>
       <c r="H1292">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1293" spans="1:8">
@@ -34010,7 +34010,7 @@
         <v>-6219362.347565068</v>
       </c>
       <c r="H1293">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1294" spans="1:8">
@@ -34036,7 +34036,7 @@
         <v>-6219362.347565068</v>
       </c>
       <c r="H1294">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1295" spans="1:8">
@@ -34062,7 +34062,7 @@
         <v>-6172229.347565068</v>
       </c>
       <c r="H1295">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1296" spans="1:8">
@@ -34088,7 +34088,7 @@
         <v>-6148884.347565068</v>
       </c>
       <c r="H1296">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1297" spans="1:8">
@@ -34114,7 +34114,7 @@
         <v>-6195617.347565068</v>
       </c>
       <c r="H1297">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1298" spans="1:8">
@@ -34140,7 +34140,7 @@
         <v>-6195617.347565068</v>
       </c>
       <c r="H1298">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1299" spans="1:8">
@@ -34166,7 +34166,7 @@
         <v>-6147851.347565068</v>
       </c>
       <c r="H1299">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1300" spans="1:8">
@@ -34192,7 +34192,7 @@
         <v>-6122918.347565068</v>
       </c>
       <c r="H1300">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1301" spans="1:8">
@@ -34218,7 +34218,7 @@
         <v>-6143002.347565068</v>
       </c>
       <c r="H1301">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1302" spans="1:8">
@@ -34244,7 +34244,7 @@
         <v>-6164561.347565068</v>
       </c>
       <c r="H1302">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1303" spans="1:8">
@@ -34270,7 +34270,7 @@
         <v>-6159561.347565068</v>
       </c>
       <c r="H1303">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1304" spans="1:8">
@@ -34738,7 +34738,7 @@
         <v>-6709904.532665067</v>
       </c>
       <c r="H1321">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1322" spans="1:8">
@@ -34764,7 +34764,7 @@
         <v>-6662752.532665067</v>
       </c>
       <c r="H1322">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1323" spans="1:8">
@@ -34790,7 +34790,7 @@
         <v>-6622311.532665067</v>
       </c>
       <c r="H1323">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1324" spans="1:8">
@@ -34816,7 +34816,7 @@
         <v>-6657020.532665067</v>
       </c>
       <c r="H1324">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1325" spans="1:8">
@@ -34842,7 +34842,7 @@
         <v>-6703679.532665067</v>
       </c>
       <c r="H1325">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1326" spans="1:8">
@@ -35024,7 +35024,7 @@
         <v>-6652019.532665067</v>
       </c>
       <c r="H1332">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1333" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-25 MBL ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-25 MBL ohlcv.xlsx
@@ -23558,7 +23558,7 @@
         <v>1996385.313257403</v>
       </c>
       <c r="H891">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="892" spans="1:8">
@@ -23584,7 +23584,7 @@
         <v>1996385.313257403</v>
       </c>
       <c r="H892">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="893" spans="1:8">
@@ -23610,7 +23610,7 @@
         <v>1996385.313257403</v>
       </c>
       <c r="H893">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="894" spans="1:8">
@@ -23636,7 +23636,7 @@
         <v>1955479.313257403</v>
       </c>
       <c r="H894">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="895" spans="1:8">
@@ -23662,7 +23662,7 @@
         <v>1955479.313257403</v>
       </c>
       <c r="H895">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="896" spans="1:8">
@@ -23688,7 +23688,7 @@
         <v>1932784.313257403</v>
       </c>
       <c r="H896">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="897" spans="1:8">
@@ -23714,7 +23714,7 @@
         <v>1904925.313257403</v>
       </c>
       <c r="H897">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="898" spans="1:8">
@@ -23740,7 +23740,7 @@
         <v>1178008.976257403</v>
       </c>
       <c r="H898">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="899" spans="1:8">
@@ -23766,7 +23766,7 @@
         <v>1205842.976257403</v>
       </c>
       <c r="H899">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="900" spans="1:8">
@@ -23792,7 +23792,7 @@
         <v>1131190.062857403</v>
       </c>
       <c r="H900">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="901" spans="1:8">
@@ -23818,7 +23818,7 @@
         <v>1185836.062857403</v>
       </c>
       <c r="H901">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="902" spans="1:8">
@@ -23844,7 +23844,7 @@
         <v>27427.01635740278</v>
       </c>
       <c r="H902">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="903" spans="1:8">
@@ -23870,7 +23870,7 @@
         <v>121851.6517574028</v>
       </c>
       <c r="H903">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="904" spans="1:8">
@@ -23974,7 +23974,7 @@
         <v>130898.6330252941</v>
       </c>
       <c r="H907">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="908" spans="1:8">
@@ -24000,7 +24000,7 @@
         <v>-109746.9674747059</v>
       </c>
       <c r="H908">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="909" spans="1:8">
@@ -24026,7 +24026,7 @@
         <v>-149655.9674747059</v>
       </c>
       <c r="H909">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="910" spans="1:8">
@@ -24104,7 +24104,7 @@
         <v>-109067.2548747059</v>
       </c>
       <c r="H912">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="913" spans="1:8">
@@ -24156,7 +24156,7 @@
         <v>276477.2876252941</v>
       </c>
       <c r="H914">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="915" spans="1:8">
@@ -24182,7 +24182,7 @@
         <v>301531.2876252941</v>
       </c>
       <c r="H915">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="916" spans="1:8">
@@ -24208,7 +24208,7 @@
         <v>265616.2876252941</v>
       </c>
       <c r="H916">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="917" spans="1:8">
@@ -24312,7 +24312,7 @@
         <v>207033.2876252941</v>
       </c>
       <c r="H920">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="921" spans="1:8">
@@ -24338,7 +24338,7 @@
         <v>262699.7843252941</v>
       </c>
       <c r="H921">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="922" spans="1:8">
@@ -24364,7 +24364,7 @@
         <v>296729.7843252941</v>
       </c>
       <c r="H922">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="923" spans="1:8">
@@ -29122,7 +29122,7 @@
         <v>-5660408.901465068</v>
       </c>
       <c r="H1105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1106" spans="1:8">
@@ -29148,7 +29148,7 @@
         <v>-5699128.901465068</v>
       </c>
       <c r="H1106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1107" spans="1:8">
@@ -29174,7 +29174,7 @@
         <v>-5674642.901465068</v>
       </c>
       <c r="H1107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1108" spans="1:8">
@@ -29200,7 +29200,7 @@
         <v>-5706420.901465068</v>
       </c>
       <c r="H1108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1109" spans="1:8">
@@ -29226,7 +29226,7 @@
         <v>-5706420.901465068</v>
       </c>
       <c r="H1109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1110" spans="1:8">
@@ -29252,7 +29252,7 @@
         <v>-5672387.901465068</v>
       </c>
       <c r="H1110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1111" spans="1:8">
@@ -29278,7 +29278,7 @@
         <v>-5639963.901465068</v>
       </c>
       <c r="H1111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1112" spans="1:8">
@@ -30084,7 +30084,7 @@
         <v>-6850228.584165067</v>
       </c>
       <c r="H1142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1143" spans="1:8">
@@ -30110,7 +30110,7 @@
         <v>-6810365.584165067</v>
       </c>
       <c r="H1143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1144" spans="1:8">
@@ -30136,7 +30136,7 @@
         <v>-6758730.584165067</v>
       </c>
       <c r="H1144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1145" spans="1:8">
@@ -30162,7 +30162,7 @@
         <v>-6804698.584165067</v>
       </c>
       <c r="H1145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1146" spans="1:8">
@@ -30188,7 +30188,7 @@
         <v>-6845690.584165067</v>
       </c>
       <c r="H1146">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1147" spans="1:8">
@@ -30214,7 +30214,7 @@
         <v>-6881280.585765067</v>
       </c>
       <c r="H1147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1148" spans="1:8">
@@ -30240,7 +30240,7 @@
         <v>-6720317.958865068</v>
       </c>
       <c r="H1148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1149" spans="1:8">
@@ -30266,7 +30266,7 @@
         <v>-6742878.958865068</v>
       </c>
       <c r="H1149">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1150" spans="1:8">
@@ -30292,7 +30292,7 @@
         <v>-6742878.958865068</v>
       </c>
       <c r="H1150">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1151" spans="1:8">
@@ -30318,7 +30318,7 @@
         <v>-6742878.958865068</v>
       </c>
       <c r="H1151">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1152" spans="1:8">
@@ -30656,7 +30656,7 @@
         <v>-6789041.958865068</v>
       </c>
       <c r="H1164">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1165" spans="1:8">
@@ -30682,7 +30682,7 @@
         <v>-6828251.671565068</v>
       </c>
       <c r="H1165">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1166" spans="1:8">
@@ -30734,7 +30734,7 @@
         <v>-6771982.671565068</v>
       </c>
       <c r="H1167">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1168" spans="1:8">
@@ -30760,7 +30760,7 @@
         <v>-6815322.671565068</v>
       </c>
       <c r="H1168">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1169" spans="1:8">
@@ -30786,7 +30786,7 @@
         <v>-6768288.671565068</v>
       </c>
       <c r="H1169">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1170" spans="1:8">
@@ -30838,7 +30838,7 @@
         <v>-6756550.671565068</v>
       </c>
       <c r="H1171">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1172" spans="1:8">
@@ -30864,7 +30864,7 @@
         <v>-6781059.671565068</v>
       </c>
       <c r="H1172">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1173" spans="1:8">
@@ -31332,7 +31332,7 @@
         <v>-6733712.347565068</v>
       </c>
       <c r="H1190">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1191" spans="1:8">
@@ -31384,7 +31384,7 @@
         <v>-6652854.347565068</v>
       </c>
       <c r="H1192">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1193" spans="1:8">
@@ -31410,7 +31410,7 @@
         <v>-6631010.347565068</v>
       </c>
       <c r="H1193">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1194" spans="1:8">
@@ -31436,7 +31436,7 @@
         <v>-6590717.347565068</v>
       </c>
       <c r="H1194">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1195" spans="1:8">
@@ -31462,7 +31462,7 @@
         <v>-6559716.347565068</v>
       </c>
       <c r="H1195">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1196" spans="1:8">
@@ -31488,7 +31488,7 @@
         <v>-6601676.347565068</v>
       </c>
       <c r="H1196">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1197" spans="1:8">
@@ -31514,7 +31514,7 @@
         <v>-6636824.347565068</v>
       </c>
       <c r="H1197">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1198" spans="1:8">
@@ -31540,7 +31540,7 @@
         <v>-6605308.347565068</v>
       </c>
       <c r="H1198">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1199" spans="1:8">
@@ -31566,7 +31566,7 @@
         <v>-6642268.347565068</v>
       </c>
       <c r="H1199">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1200" spans="1:8">
@@ -31592,7 +31592,7 @@
         <v>-6642268.347565068</v>
       </c>
       <c r="H1200">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1201" spans="1:8">
@@ -31618,7 +31618,7 @@
         <v>-6642268.347565068</v>
       </c>
       <c r="H1201">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1202" spans="1:8">
@@ -32242,7 +32242,7 @@
         <v>-6457430.347565068</v>
       </c>
       <c r="H1225">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1226" spans="1:8">
@@ -32268,7 +32268,7 @@
         <v>-6457430.347565068</v>
       </c>
       <c r="H1226">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1227" spans="1:8">
@@ -32658,7 +32658,7 @@
         <v>-6369332.347565068</v>
       </c>
       <c r="H1241">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1242" spans="1:8">
@@ -32684,7 +32684,7 @@
         <v>-6332462.347565068</v>
       </c>
       <c r="H1242">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1243" spans="1:8">
@@ -32710,7 +32710,7 @@
         <v>-6332462.347565068</v>
       </c>
       <c r="H1243">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1244" spans="1:8">
@@ -33230,7 +33230,7 @@
         <v>-6217413.347565068</v>
       </c>
       <c r="H1263">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1264" spans="1:8">
@@ -33256,7 +33256,7 @@
         <v>-6242666.347565068</v>
       </c>
       <c r="H1264">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1265" spans="1:8">
@@ -33360,7 +33360,7 @@
         <v>-6248033.347565068</v>
       </c>
       <c r="H1268">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1269" spans="1:8">
@@ -33438,7 +33438,7 @@
         <v>-6196548.347565068</v>
       </c>
       <c r="H1271">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1272" spans="1:8">
@@ -33464,7 +33464,7 @@
         <v>-6165468.347565068</v>
       </c>
       <c r="H1272">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1273" spans="1:8">
@@ -33490,7 +33490,7 @@
         <v>-6143232.347565068</v>
       </c>
       <c r="H1273">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1274" spans="1:8">
@@ -33516,7 +33516,7 @@
         <v>-6143232.347565068</v>
       </c>
       <c r="H1274">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1275" spans="1:8">
@@ -33542,7 +33542,7 @@
         <v>-6171084.347565068</v>
       </c>
       <c r="H1275">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1276" spans="1:8">
@@ -33568,7 +33568,7 @@
         <v>-6191032.347565068</v>
       </c>
       <c r="H1276">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1277" spans="1:8">
@@ -33594,7 +33594,7 @@
         <v>-6191032.347565068</v>
       </c>
       <c r="H1277">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1278" spans="1:8">
@@ -33620,7 +33620,7 @@
         <v>-6191032.347565068</v>
       </c>
       <c r="H1278">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1279" spans="1:8">
@@ -33646,7 +33646,7 @@
         <v>-6191032.347565068</v>
       </c>
       <c r="H1279">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1280" spans="1:8">
@@ -33672,7 +33672,7 @@
         <v>-6191032.347565068</v>
       </c>
       <c r="H1280">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1281" spans="1:8">
@@ -33698,7 +33698,7 @@
         <v>-6171414.347565068</v>
       </c>
       <c r="H1281">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1282" spans="1:8">
@@ -33724,7 +33724,7 @@
         <v>-6137715.347565068</v>
       </c>
       <c r="H1282">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1283" spans="1:8">
@@ -33750,7 +33750,7 @@
         <v>-6137715.347565068</v>
       </c>
       <c r="H1283">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1284" spans="1:8">
@@ -33776,7 +33776,7 @@
         <v>-6172825.347565068</v>
       </c>
       <c r="H1284">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1285" spans="1:8">
@@ -33802,7 +33802,7 @@
         <v>-6172825.347565068</v>
       </c>
       <c r="H1285">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1286" spans="1:8">
@@ -33828,7 +33828,7 @@
         <v>-6214354.347565068</v>
       </c>
       <c r="H1286">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1287" spans="1:8">
@@ -33854,7 +33854,7 @@
         <v>-6214354.347565068</v>
       </c>
       <c r="H1287">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1288" spans="1:8">
@@ -33880,7 +33880,7 @@
         <v>-6184129.347565068</v>
       </c>
       <c r="H1288">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1289" spans="1:8">
@@ -33906,7 +33906,7 @@
         <v>-6184129.347565068</v>
       </c>
       <c r="H1289">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1290" spans="1:8">
@@ -33932,7 +33932,7 @@
         <v>-6184129.347565068</v>
       </c>
       <c r="H1290">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1291" spans="1:8">
@@ -33958,7 +33958,7 @@
         <v>-6152530.347565068</v>
       </c>
       <c r="H1291">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1292" spans="1:8">
@@ -33984,7 +33984,7 @@
         <v>-6193134.347565068</v>
       </c>
       <c r="H1292">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1293" spans="1:8">
@@ -34010,7 +34010,7 @@
         <v>-6219362.347565068</v>
       </c>
       <c r="H1293">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1294" spans="1:8">
@@ -34036,7 +34036,7 @@
         <v>-6219362.347565068</v>
       </c>
       <c r="H1294">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1295" spans="1:8">
@@ -34062,7 +34062,7 @@
         <v>-6172229.347565068</v>
       </c>
       <c r="H1295">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1296" spans="1:8">
@@ -34088,7 +34088,7 @@
         <v>-6148884.347565068</v>
       </c>
       <c r="H1296">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1297" spans="1:8">
@@ -34114,7 +34114,7 @@
         <v>-6195617.347565068</v>
       </c>
       <c r="H1297">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1298" spans="1:8">
@@ -34140,7 +34140,7 @@
         <v>-6195617.347565068</v>
       </c>
       <c r="H1298">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1299" spans="1:8">
@@ -34166,7 +34166,7 @@
         <v>-6147851.347565068</v>
       </c>
       <c r="H1299">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1300" spans="1:8">
@@ -34192,7 +34192,7 @@
         <v>-6122918.347565068</v>
       </c>
       <c r="H1300">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1301" spans="1:8">
@@ -34218,7 +34218,7 @@
         <v>-6143002.347565068</v>
       </c>
       <c r="H1301">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1302" spans="1:8">
@@ -34244,7 +34244,7 @@
         <v>-6164561.347565068</v>
       </c>
       <c r="H1302">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1303" spans="1:8">
@@ -34270,7 +34270,7 @@
         <v>-6159561.347565068</v>
       </c>
       <c r="H1303">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1304" spans="1:8">
@@ -34738,7 +34738,7 @@
         <v>-6709904.532665067</v>
       </c>
       <c r="H1321">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1322" spans="1:8">
@@ -34764,7 +34764,7 @@
         <v>-6662752.532665067</v>
       </c>
       <c r="H1322">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1323" spans="1:8">
@@ -34790,7 +34790,7 @@
         <v>-6622311.532665067</v>
       </c>
       <c r="H1323">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1324" spans="1:8">
@@ -34816,7 +34816,7 @@
         <v>-6657020.532665067</v>
       </c>
       <c r="H1324">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1325" spans="1:8">
@@ -34842,7 +34842,7 @@
         <v>-6703679.532665067</v>
       </c>
       <c r="H1325">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1326" spans="1:8">
@@ -34868,7 +34868,7 @@
         <v>-6667121.532665067</v>
       </c>
       <c r="H1326">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1327" spans="1:8">
@@ -34894,7 +34894,7 @@
         <v>-6667121.532665067</v>
       </c>
       <c r="H1327">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1328" spans="1:8">
@@ -34920,7 +34920,7 @@
         <v>-6667121.532665067</v>
       </c>
       <c r="H1328">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1329" spans="1:8">
@@ -34946,7 +34946,7 @@
         <v>-6645444.532665067</v>
       </c>
       <c r="H1329">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1330" spans="1:8">
@@ -34972,7 +34972,7 @@
         <v>-6610698.532665067</v>
       </c>
       <c r="H1330">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1331" spans="1:8">
@@ -34998,7 +34998,7 @@
         <v>-6610698.532665067</v>
       </c>
       <c r="H1331">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1332" spans="1:8">
@@ -35024,7 +35024,7 @@
         <v>-6652019.532665067</v>
       </c>
       <c r="H1332">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1333" spans="1:8">
@@ -35050,7 +35050,7 @@
         <v>-6581655.047465067</v>
       </c>
       <c r="H1333">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1334" spans="1:8">
@@ -35102,7 +35102,7 @@
         <v>-6592009.047465067</v>
       </c>
       <c r="H1335">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1336" spans="1:8">
@@ -35128,7 +35128,7 @@
         <v>-6592009.047465067</v>
       </c>
       <c r="H1336">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1337" spans="1:8">
@@ -35206,7 +35206,7 @@
         <v>-6511968.047465067</v>
       </c>
       <c r="H1339">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1340" spans="1:8">
@@ -35232,7 +35232,7 @@
         <v>-6511968.047465067</v>
       </c>
       <c r="H1340">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
